--- a/表2.xlsx
+++ b/表2.xlsx
@@ -434,30 +434,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三星500g 2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器均热板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeoECO620闲鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASUS M5A97 EVO R2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amd专用 8g *4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evga gtx460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rm2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +459,26 @@
   </si>
   <si>
     <t>i3-9100f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigabyte/技嘉 B150M-D3V DDR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amd专用 16g *2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼下压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7 260x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星500g 2.5 + 镁光256g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1133,11 +1133,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" s="8">
-        <f>132+23</f>
-        <v>155</v>
+        <f>156</f>
+        <v>156</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7">
@@ -1149,11 +1149,11 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8">
-        <f>78*4</f>
-        <v>312</v>
+        <f>336</f>
+        <v>336</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
@@ -1165,11 +1165,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8">
-        <f>500</f>
-        <v>500</v>
+        <f>488</f>
+        <v>488</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
@@ -1181,10 +1181,11 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C5" s="8">
-        <v>55</v>
+        <f>40+5</f>
+        <v>45</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
@@ -1196,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8">
         <v>142</v>
@@ -1211,11 +1212,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" s="20">
-        <f>50</f>
-        <v>50</v>
+        <f>99</f>
+        <v>99</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -1226,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" s="20">
         <f>180</f>
@@ -1241,11 +1242,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C9" s="16">
-        <f>55+125</f>
-        <v>180</v>
+        <f>55+168</f>
+        <v>223</v>
       </c>
       <c r="E9" s="17">
         <v>8</v>
@@ -1253,10 +1254,10 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" s="16">
         <v>130</v>
@@ -1267,14 +1268,14 @@
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="16">
-        <f>280+40</f>
-        <v>320</v>
+        <f>260+40</f>
+        <v>300</v>
       </c>
       <c r="E11" s="17">
         <v>10</v>
@@ -1283,11 +1284,11 @@
     <row r="13" spans="1:5">
       <c r="D13" s="22">
         <f>SUM(C2:C13)</f>
-        <v>2024</v>
+        <v>2099</v>
       </c>
       <c r="E13" s="8">
         <f>SUM(C2:C6)</f>
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>

--- a/表2.xlsx
+++ b/表2.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
